--- a/tables/CNV_copynumber_ichorcna_region.xlsx
+++ b/tables/CNV_copynumber_ichorcna_region.xlsx
@@ -522,10 +522,10 @@
   <dimension ref="A1:BJ201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1443,7 +1443,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SLL</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
@@ -3923,7 +3923,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CLL/MZL/LPL</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B18" s="14" t="inlineStr">
@@ -4496,7 +4496,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SLL</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B21" s="14" t="inlineStr">
@@ -6766,7 +6766,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MF, CD5+ small B cell lymphoproliferative</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B33" s="18" t="inlineStr">
@@ -9614,7 +9614,7 @@
     <row r="48">
       <c r="A48" s="20" t="inlineStr">
         <is>
-          <t>MDS s/p allogeneic bone marrow transplant</t>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B48" s="18" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10005,9 +10005,9 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MDS therapy related</t>
+      <c r="A50" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B50" s="18" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10397,7 +10397,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10593,7 +10593,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10789,7 +10789,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10985,7 +10985,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -11181,7 +11181,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -11377,9 +11377,9 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A57" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B57" s="18" t="inlineStr">
@@ -11568,9 +11568,9 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A58" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B58" s="18" t="inlineStr">
@@ -11764,9 +11764,9 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with unilineage dysplasia</t>
+      <c r="A59" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B59" s="18" t="inlineStr">
@@ -11960,7 +11960,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -12156,7 +12156,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -12352,7 +12352,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -12553,9 +12553,9 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>MDS-EB-1</t>
+      <c r="A63" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B63" s="18" t="inlineStr">
@@ -12749,9 +12749,9 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>MDS therapy related</t>
+      <c r="A64" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B64" s="18" t="inlineStr">
@@ -12945,9 +12945,9 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with excess blasts</t>
+      <c r="A65" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B65" s="18" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -13337,9 +13337,9 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A67" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B67" s="18" t="inlineStr">
@@ -13533,9 +13533,9 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MDS with multilineage dysplasia</t>
+      <c r="A68" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B68" s="18" t="inlineStr">
@@ -13729,9 +13729,9 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with excess blasts</t>
+      <c r="A69" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B69" s="18" t="inlineStr">
@@ -13925,7 +13925,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -14121,7 +14121,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -14313,9 +14313,9 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MDS therapy related</t>
+      <c r="A72" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B72" s="18" t="inlineStr">
@@ -14509,9 +14509,9 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MDS/MPN, CMML</t>
+      <c r="A73" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B73" s="18" t="inlineStr">
@@ -14705,7 +14705,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -14901,7 +14901,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15097,7 +15097,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15293,7 +15293,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15489,7 +15489,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15685,9 +15685,9 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MDS/MPN </t>
+      <c r="A79" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B79" s="18" t="inlineStr">
@@ -15881,7 +15881,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16082,7 +16082,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16278,7 +16278,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16474,7 +16474,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16670,7 +16670,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16866,7 +16866,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17062,7 +17062,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17254,7 +17254,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17445,7 +17445,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17641,7 +17641,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17837,7 +17837,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18033,9 +18033,9 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A91" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B91" s="18" t="inlineStr">
@@ -18224,9 +18224,9 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with ring sideroblasts</t>
+      <c r="A92" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B92" s="18" t="inlineStr">
@@ -18420,7 +18420,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18616,7 +18616,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18812,9 +18812,9 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>MDS/MPN, CMML</t>
+      <c r="A95" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B95" s="18" t="inlineStr">
@@ -19008,9 +19008,9 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>MDS-EB</t>
+      <c r="A96" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B96" s="18" t="inlineStr">
@@ -19199,9 +19199,9 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>MDS with multilineage dysplasia and myelofibrosis</t>
+      <c r="A97" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B97" s="18" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -19591,9 +19591,9 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>MDS-EB</t>
+      <c r="A99" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B99" s="18" t="inlineStr">
@@ -19787,7 +19787,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -19983,9 +19983,9 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>MDS/MPN, CMML</t>
+      <c r="A101" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B101" s="18" t="inlineStr">
@@ -20179,9 +20179,9 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A102" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B102" s="18" t="inlineStr">
@@ -20375,7 +20375,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -20571,7 +20571,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -20767,9 +20767,9 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>MDS,  Refractory anemia with ring sideroblasts</t>
+      <c r="A105" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B105" s="18" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -21164,9 +21164,9 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>MDS-EB2</t>
+      <c r="A107" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B107" s="18" t="inlineStr">
@@ -21365,9 +21365,9 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>MDS-EB2</t>
+      <c r="A108" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B108" s="18" t="inlineStr">
@@ -21566,9 +21566,9 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with excess blasts</t>
+      <c r="A109" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B109" s="18" t="inlineStr">
@@ -21762,7 +21762,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -21958,9 +21958,9 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A111" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B111" s="18" t="inlineStr">
@@ -22154,9 +22154,9 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A112" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B112" s="18" t="inlineStr">
@@ -22350,7 +22350,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -22546,9 +22546,9 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>MDS/MPN</t>
+      <c r="A114" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B114" s="18" t="inlineStr">
@@ -22742,9 +22742,9 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A115" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B115" s="18" t="inlineStr">
@@ -22933,7 +22933,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -23129,7 +23129,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -23325,7 +23325,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -23521,9 +23521,9 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>MDS + CML</t>
+      <c r="A119" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B119" s="18" t="inlineStr">

--- a/tables/CNV_copynumber_ichorcna_region.xlsx
+++ b/tables/CNV_copynumber_ichorcna_region.xlsx
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>1.547445255474453</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>1.547445255474453</v>
       </c>
       <c r="AJ2" t="n">
         <v>3</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="20" t="n">
-        <v>1</v>
+        <v>1.547445255474453</v>
       </c>
       <c r="BA2" s="20" t="n">
         <v>3</v>
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.842639629209757</v>
+        <v>2</v>
       </c>
       <c r="K4" s="20" t="n">
         <v>2</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.842639629209757</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="n">
         <v>2</v>
@@ -1392,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="AR4" s="20" t="n">
-        <v>1.842639629209757</v>
+        <v>2</v>
       </c>
       <c r="AS4" s="20" t="n">
         <v>2</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.759124087591241</v>
       </c>
       <c r="S5" s="20" t="n">
         <v>2</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>2</v>
+        <v>2.759124087591241</v>
       </c>
       <c r="AJ5" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="20" t="n">
-        <v>2</v>
+        <v>2.759124087591241</v>
       </c>
       <c r="BA5" s="20" t="n">
         <v>2</v>
@@ -1861,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>1.09004583558668</v>
       </c>
       <c r="K7" s="20" t="n">
         <v>2</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>1.09004583558668</v>
       </c>
       <c r="AB7" t="n">
         <v>2</v>
@@ -1963,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="AR7" s="20" t="n">
-        <v>1</v>
+        <v>1.09004583558668</v>
       </c>
       <c r="AS7" s="20" t="n">
         <v>2</v>
@@ -2048,7 +2048,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>1.09004583558668</v>
       </c>
       <c r="K8" s="20" t="n">
         <v>2</v>
@@ -2099,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>1.09004583558668</v>
       </c>
       <c r="AB8" t="n">
         <v>2</v>
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="AR8" s="20" t="n">
-        <v>1</v>
+        <v>1.09004583558668</v>
       </c>
       <c r="AS8" s="20" t="n">
         <v>2</v>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1.875912408759124</v>
       </c>
       <c r="S11" s="20" t="n">
         <v>3</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>2</v>
+        <v>1.875912408759124</v>
       </c>
       <c r="AJ11" t="n">
         <v>3</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="20" t="n">
-        <v>2</v>
+        <v>1.875912408759124</v>
       </c>
       <c r="BA11" s="20" t="n">
         <v>3</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>2.08029197080292</v>
       </c>
       <c r="S19" s="20" t="n">
         <v>2</v>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>2</v>
+        <v>2.08029197080292</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="AZ19" s="20" t="n">
-        <v>2</v>
+        <v>2.08029197080292</v>
       </c>
       <c r="BA19" s="20" t="n">
         <v>2</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>1.284671532846715</v>
       </c>
       <c r="S20" s="20" t="n">
         <v>2</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1</v>
+        <v>1.284671532846715</v>
       </c>
       <c r="AJ20" t="n">
         <v>2</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="AZ20" s="20" t="n">
-        <v>1</v>
+        <v>1.284671532846715</v>
       </c>
       <c r="BA20" s="20" t="n">
         <v>2</v>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>1.751824817518248</v>
       </c>
       <c r="S33" s="20" t="n">
         <v>3</v>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>2</v>
+        <v>1.751824817518248</v>
       </c>
       <c r="AJ33" t="n">
         <v>3</v>
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" s="20" t="n">
-        <v>2</v>
+        <v>1.751824817518248</v>
       </c>
       <c r="BA33" s="20" t="n">
         <v>3</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.248175182481752</v>
       </c>
       <c r="S34" s="20" t="n">
         <v>3</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>2</v>
+        <v>2.248175182481752</v>
       </c>
       <c r="AJ34" t="n">
         <v>3</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="AZ34" s="20" t="n">
-        <v>2</v>
+        <v>2.248175182481752</v>
       </c>
       <c r="BA34" s="20" t="n">
         <v>3</v>
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>2.058394160583942</v>
       </c>
       <c r="S37" s="20" t="n">
         <v>2</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>2</v>
+        <v>2.058394160583942</v>
       </c>
       <c r="AJ37" t="n">
         <v>2</v>
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="20" t="n">
-        <v>2</v>
+        <v>2.058394160583942</v>
       </c>
       <c r="BA37" s="20" t="n">
         <v>2</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>2.124087591240876</v>
       </c>
       <c r="S38" s="20" t="n">
         <v>5</v>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>2</v>
+        <v>2.124087591240876</v>
       </c>
       <c r="AJ38" t="n">
         <v>5</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AZ38" s="20" t="n">
-        <v>2</v>
+        <v>2.124087591240876</v>
       </c>
       <c r="BA38" s="20" t="n">
         <v>5</v>
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>2.899280610734472</v>
+        <v>2.983213820359353</v>
       </c>
       <c r="J44" t="n">
         <v>2</v>
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.899280610734472</v>
+        <v>2.983213820359353</v>
       </c>
       <c r="AA44" t="n">
         <v>2</v>
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="20" t="n">
-        <v>2.899280610734472</v>
+        <v>2.983213820359353</v>
       </c>
       <c r="AR44" s="20" t="n">
         <v>2</v>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>2.233576642335767</v>
       </c>
       <c r="S45" s="20" t="n">
         <v>2</v>
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>2</v>
+        <v>2.233576642335767</v>
       </c>
       <c r="AJ45" t="n">
         <v>2</v>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="20" t="n">
-        <v>2</v>
+        <v>2.233576642335767</v>
       </c>
       <c r="BA45" s="20" t="n">
         <v>2</v>
@@ -9298,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>2.35036496350365</v>
       </c>
       <c r="S46" s="20" t="n">
         <v>1</v>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>2</v>
+        <v>2.35036496350365</v>
       </c>
       <c r="AJ46" t="n">
         <v>1</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="20" t="n">
-        <v>2</v>
+        <v>2.35036496350365</v>
       </c>
       <c r="BA46" s="20" t="n">
         <v>1</v>
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>1.547445255474453</v>
       </c>
       <c r="S50" t="n">
         <v>2</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="AI50" t="n">
-        <v>1</v>
+        <v>1.547445255474453</v>
       </c>
       <c r="AJ50" t="n">
         <v>2</v>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="20" t="n">
-        <v>1</v>
+        <v>1.547445255474453</v>
       </c>
       <c r="BA50" s="20" t="n">
         <v>2</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>2</v>
+        <v>1.992700729927007</v>
       </c>
       <c r="S52" t="n">
         <v>2</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>2</v>
+        <v>1.992700729927007</v>
       </c>
       <c r="AJ52" t="n">
         <v>2</v>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="AZ52" s="20" t="n">
-        <v>2</v>
+        <v>1.992700729927007</v>
       </c>
       <c r="BA52" s="20" t="n">
         <v>2</v>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>2</v>
+        <v>2.029197080291971</v>
       </c>
       <c r="S61" t="n">
         <v>2</v>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="AI61" t="n">
-        <v>2</v>
+        <v>2.029197080291971</v>
       </c>
       <c r="AJ61" t="n">
         <v>2</v>
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="AZ61" s="20" t="n">
-        <v>2</v>
+        <v>2.029197080291971</v>
       </c>
       <c r="BA61" s="20" t="n">
         <v>2</v>
@@ -12416,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>2.248175182481752</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -12467,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="AI62" t="n">
-        <v>2</v>
+        <v>2.248175182481752</v>
       </c>
       <c r="AJ62" t="n">
         <v>1</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="AZ62" s="20" t="n">
-        <v>2</v>
+        <v>2.248175182481752</v>
       </c>
       <c r="BA62" s="20" t="n">
         <v>1</v>
@@ -12813,7 +12813,7 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>1</v>
+        <v>1.445255474452555</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -12864,7 +12864,7 @@
         <v>0</v>
       </c>
       <c r="AI64" t="n">
-        <v>1</v>
+        <v>1.445255474452555</v>
       </c>
       <c r="AJ64" t="n">
         <v>1</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="AZ64" s="20" t="n">
-        <v>1</v>
+        <v>1.445255474452555</v>
       </c>
       <c r="BA64" s="20" t="n">
         <v>1</v>
@@ -14769,7 +14769,7 @@
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>2</v>
+        <v>2.248175182481752</v>
       </c>
       <c r="S74" t="n">
         <v>1</v>
@@ -14820,7 +14820,7 @@
         <v>0</v>
       </c>
       <c r="AI74" t="n">
-        <v>2</v>
+        <v>2.248175182481752</v>
       </c>
       <c r="AJ74" t="n">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>0</v>
       </c>
       <c r="AZ74" s="20" t="n">
-        <v>2</v>
+        <v>2.248175182481752</v>
       </c>
       <c r="BA74" s="20" t="n">
         <v>1</v>
@@ -15330,7 +15330,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1.028776937529069</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.028776937529069</v>
+        <v>1</v>
       </c>
       <c r="AA77" t="n">
         <v>1</v>
@@ -15432,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="AQ77" s="20" t="n">
-        <v>1.028776937529069</v>
+        <v>1</v>
       </c>
       <c r="AR77" s="20" t="n">
         <v>1</v>
@@ -15921,7 +15921,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>1.13506875338002</v>
       </c>
       <c r="K80" t="n">
         <v>2</v>
@@ -15972,7 +15972,7 @@
         <v>2</v>
       </c>
       <c r="AA80" t="n">
-        <v>1</v>
+        <v>1.13506875338002</v>
       </c>
       <c r="AB80" t="n">
         <v>2</v>
@@ -16023,7 +16023,7 @@
         <v>2</v>
       </c>
       <c r="AR80" s="20" t="n">
-        <v>1</v>
+        <v>1.13506875338002</v>
       </c>
       <c r="AS80" s="20" t="n">
         <v>2</v>
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>4</v>
+        <v>4.072992700729927</v>
       </c>
       <c r="S83" t="n">
         <v>2</v>
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="AI83" t="n">
-        <v>4</v>
+        <v>4.072992700729927</v>
       </c>
       <c r="AJ83" t="n">
         <v>2</v>
@@ -16640,7 +16640,7 @@
         <v>0</v>
       </c>
       <c r="AZ83" s="20" t="n">
-        <v>4</v>
+        <v>4.072992700729927</v>
       </c>
       <c r="BA83" s="20" t="n">
         <v>2</v>
@@ -19435,7 +19435,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>1.136529288015673</v>
       </c>
       <c r="K98" t="n">
         <v>2</v>
@@ -19486,7 +19486,7 @@
         <v>1</v>
       </c>
       <c r="AA98" t="n">
-        <v>1</v>
+        <v>1.136529288015673</v>
       </c>
       <c r="AB98" t="n">
         <v>2</v>
@@ -19537,7 +19537,7 @@
         <v>1</v>
       </c>
       <c r="AR98" s="20" t="n">
-        <v>1</v>
+        <v>1.136529288015673</v>
       </c>
       <c r="AS98" s="20" t="n">
         <v>2</v>
@@ -20020,7 +20020,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1.611510803788637</v>
+        <v>1.355945793324701</v>
       </c>
       <c r="J101" t="n">
         <v>2</v>
@@ -20071,7 +20071,7 @@
         <v>0</v>
       </c>
       <c r="Z101" t="n">
-        <v>1.611510803788637</v>
+        <v>1.355945793324701</v>
       </c>
       <c r="AA101" t="n">
         <v>2</v>
@@ -20122,7 +20122,7 @@
         <v>0</v>
       </c>
       <c r="AQ101" s="20" t="n">
-        <v>1.611510803788637</v>
+        <v>1.355945793324701</v>
       </c>
       <c r="AR101" s="20" t="n">
         <v>2</v>
@@ -21204,7 +21204,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.588832505862062</v>
+        <v>2</v>
       </c>
       <c r="K107" t="n">
         <v>2</v>
@@ -21255,7 +21255,7 @@
         <v>1</v>
       </c>
       <c r="AA107" t="n">
-        <v>1.588832505862062</v>
+        <v>2</v>
       </c>
       <c r="AB107" t="n">
         <v>2</v>
@@ -21306,7 +21306,7 @@
         <v>1</v>
       </c>
       <c r="AR107" s="20" t="n">
-        <v>1.588832505862062</v>
+        <v>2</v>
       </c>
       <c r="AS107" s="20" t="n">
         <v>2</v>
@@ -21429,7 +21429,7 @@
         <v>0</v>
       </c>
       <c r="R108" t="n">
-        <v>2</v>
+        <v>2.124087591240876</v>
       </c>
       <c r="S108" t="n">
         <v>2</v>
@@ -21480,7 +21480,7 @@
         <v>0</v>
       </c>
       <c r="AI108" t="n">
-        <v>2</v>
+        <v>2.124087591240876</v>
       </c>
       <c r="AJ108" t="n">
         <v>2</v>
@@ -21531,7 +21531,7 @@
         <v>0</v>
       </c>
       <c r="AZ108" s="20" t="n">
-        <v>2</v>
+        <v>2.124087591240876</v>
       </c>
       <c r="BA108" s="20" t="n">
         <v>2</v>
@@ -21630,7 +21630,7 @@
         <v>0</v>
       </c>
       <c r="R109" t="n">
-        <v>3</v>
+        <v>3.489051094890511</v>
       </c>
       <c r="S109" t="n">
         <v>2</v>
@@ -21681,7 +21681,7 @@
         <v>0</v>
       </c>
       <c r="AI109" t="n">
-        <v>3</v>
+        <v>3.489051094890511</v>
       </c>
       <c r="AJ109" t="n">
         <v>2</v>
@@ -21732,7 +21732,7 @@
         <v>0</v>
       </c>
       <c r="AZ109" s="20" t="n">
-        <v>3</v>
+        <v>3.489051094890511</v>
       </c>
       <c r="BA109" s="20" t="n">
         <v>2</v>
@@ -21799,7 +21799,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1.53237409968428</v>
+        <v>1.957688220192625</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -21850,7 +21850,7 @@
         <v>0</v>
       </c>
       <c r="Z110" t="n">
-        <v>1.53237409968428</v>
+        <v>1.957688220192625</v>
       </c>
       <c r="AA110" t="n">
         <v>1</v>
@@ -21901,7 +21901,7 @@
         <v>0</v>
       </c>
       <c r="AQ110" s="20" t="n">
-        <v>1.53237409968428</v>
+        <v>1.957688220192625</v>
       </c>
       <c r="AR110" s="20" t="n">
         <v>1</v>
@@ -22782,7 +22782,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>1.09004583558668</v>
       </c>
       <c r="K115" t="n">
         <v>2</v>
@@ -22833,7 +22833,7 @@
         <v>2</v>
       </c>
       <c r="AA115" t="n">
-        <v>1</v>
+        <v>1.09004583558668</v>
       </c>
       <c r="AB115" t="n">
         <v>2</v>
@@ -22884,7 +22884,7 @@
         <v>2</v>
       </c>
       <c r="AR115" s="20" t="n">
-        <v>1</v>
+        <v>1.09004583558668</v>
       </c>
       <c r="AS115" s="20" t="n">
         <v>2</v>
@@ -23362,7 +23362,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1.827338158998013</v>
+        <v>1.82639681360069</v>
       </c>
       <c r="J118" t="n">
         <v>2</v>
@@ -23389,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>1.090908347106086</v>
+        <v>1.700729927007299</v>
       </c>
       <c r="S118" t="n">
         <v>2</v>
@@ -23413,7 +23413,7 @@
         <v>0</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.827338158998013</v>
+        <v>1.82639681360069</v>
       </c>
       <c r="AA118" t="n">
         <v>2</v>
@@ -23440,7 +23440,7 @@
         <v>0</v>
       </c>
       <c r="AI118" t="n">
-        <v>1.090908347106086</v>
+        <v>1.700729927007299</v>
       </c>
       <c r="AJ118" t="n">
         <v>2</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="AQ118" s="20" t="n">
-        <v>1.827338158998013</v>
+        <v>1.82639681360069</v>
       </c>
       <c r="AR118" s="20" t="n">
         <v>2</v>
@@ -23491,7 +23491,7 @@
         <v>0</v>
       </c>
       <c r="AZ118" s="20" t="n">
-        <v>1.090908347106086</v>
+        <v>1.700729927007299</v>
       </c>
       <c r="BA118" s="20" t="n">
         <v>2</v>
@@ -23775,7 +23775,7 @@
         <v>0</v>
       </c>
       <c r="R120" t="n">
-        <v>1.090908347106086</v>
+        <v>1.700729927007299</v>
       </c>
       <c r="S120" t="n">
         <v>2</v>
@@ -23826,7 +23826,7 @@
         <v>0</v>
       </c>
       <c r="AI120" t="n">
-        <v>1.090908347106086</v>
+        <v>1.700729927007299</v>
       </c>
       <c r="AJ120" t="n">
         <v>2</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="AZ120" s="20" t="n">
-        <v>1.090908347106086</v>
+        <v>1.700729927007299</v>
       </c>
       <c r="BA120" s="20" t="n">
         <v>2</v>
@@ -23966,7 +23966,7 @@
         <v>0</v>
       </c>
       <c r="R121" t="n">
-        <v>2</v>
+        <v>1.708029197080292</v>
       </c>
       <c r="S121" t="n">
         <v>2</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="AI121" t="n">
-        <v>2</v>
+        <v>1.708029197080292</v>
       </c>
       <c r="AJ121" t="n">
         <v>2</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="AZ121" s="20" t="n">
-        <v>2</v>
+        <v>1.708029197080292</v>
       </c>
       <c r="BA121" s="20" t="n">
         <v>2</v>
@@ -24549,7 +24549,7 @@
         <v>0</v>
       </c>
       <c r="R124" t="n">
-        <v>2</v>
+        <v>2.08029197080292</v>
       </c>
       <c r="S124" t="n">
         <v>2</v>
@@ -24600,7 +24600,7 @@
         <v>0</v>
       </c>
       <c r="AI124" t="n">
-        <v>2</v>
+        <v>2.08029197080292</v>
       </c>
       <c r="AJ124" t="n">
         <v>2</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="AZ124" s="20" t="n">
-        <v>2</v>
+        <v>2.08029197080292</v>
       </c>
       <c r="BA124" s="20" t="n">
         <v>2</v>
@@ -26097,7 +26097,7 @@
         <v>0</v>
       </c>
       <c r="R132" t="n">
-        <v>2</v>
+        <v>1.708029197080292</v>
       </c>
       <c r="S132" t="n">
         <v>1</v>
@@ -26148,7 +26148,7 @@
         <v>0</v>
       </c>
       <c r="AI132" t="n">
-        <v>2</v>
+        <v>1.708029197080292</v>
       </c>
       <c r="AJ132" t="n">
         <v>1</v>
@@ -26199,7 +26199,7 @@
         <v>0</v>
       </c>
       <c r="AZ132" s="20" t="n">
-        <v>2</v>
+        <v>1.708029197080292</v>
       </c>
       <c r="BA132" s="20" t="n">
         <v>1</v>
@@ -26471,7 +26471,7 @@
         <v>0</v>
       </c>
       <c r="R134" t="n">
-        <v>2</v>
+        <v>2.124087591240876</v>
       </c>
       <c r="S134" t="n">
         <v>2</v>
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
       <c r="AI134" t="n">
-        <v>2</v>
+        <v>2.124087591240876</v>
       </c>
       <c r="AJ134" t="n">
         <v>2</v>
@@ -26573,7 +26573,7 @@
         <v>0</v>
       </c>
       <c r="AZ134" s="20" t="n">
-        <v>2</v>
+        <v>2.124087591240876</v>
       </c>
       <c r="BA134" s="20" t="n">
         <v>2</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="R139" t="n">
-        <v>2</v>
+        <v>1.708029197080292</v>
       </c>
       <c r="S139" t="n">
         <v>2</v>
@@ -27492,7 +27492,7 @@
         <v>0</v>
       </c>
       <c r="AI139" t="n">
-        <v>2</v>
+        <v>1.708029197080292</v>
       </c>
       <c r="AJ139" t="n">
         <v>2</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="AZ139" s="20" t="n">
-        <v>2</v>
+        <v>1.708029197080292</v>
       </c>
       <c r="BA139" s="20" t="n">
         <v>2</v>
@@ -31419,7 +31419,7 @@
         <v>0</v>
       </c>
       <c r="R160" t="n">
-        <v>2</v>
+        <v>2.248175182481752</v>
       </c>
       <c r="S160" t="n">
         <v>2</v>
@@ -31470,7 +31470,7 @@
         <v>1</v>
       </c>
       <c r="AI160" t="n">
-        <v>2</v>
+        <v>2.248175182481752</v>
       </c>
       <c r="AJ160" t="n">
         <v>2</v>
@@ -31521,7 +31521,7 @@
         <v>1</v>
       </c>
       <c r="AZ160" s="20" t="n">
-        <v>2</v>
+        <v>2.248175182481752</v>
       </c>
       <c r="BA160" s="20" t="n">
         <v>2</v>
@@ -32932,7 +32932,7 @@
         <v>0</v>
       </c>
       <c r="R168" t="n">
-        <v>1.090908347106086</v>
+        <v>1.700729927007299</v>
       </c>
       <c r="S168" t="n">
         <v>2</v>
@@ -32983,7 +32983,7 @@
         <v>0</v>
       </c>
       <c r="AI168" t="n">
-        <v>1.090908347106086</v>
+        <v>1.700729927007299</v>
       </c>
       <c r="AJ168" t="n">
         <v>2</v>
@@ -33034,7 +33034,7 @@
         <v>0</v>
       </c>
       <c r="AZ168" s="20" t="n">
-        <v>1.090908347106086</v>
+        <v>1.700729927007299</v>
       </c>
       <c r="BA168" s="20" t="n">
         <v>2</v>
@@ -34797,7 +34797,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>1</v>
+        <v>1.09004583558668</v>
       </c>
       <c r="K178" t="n">
         <v>2</v>
@@ -34848,7 +34848,7 @@
         <v>2</v>
       </c>
       <c r="AA178" t="n">
-        <v>1</v>
+        <v>1.09004583558668</v>
       </c>
       <c r="AB178" t="n">
         <v>2</v>
@@ -34899,7 +34899,7 @@
         <v>2</v>
       </c>
       <c r="AR178" s="20" t="n">
-        <v>1</v>
+        <v>1.09004583558668</v>
       </c>
       <c r="AS178" s="20" t="n">
         <v>2</v>
@@ -34999,7 +34999,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="n">
-        <v>1</v>
+        <v>1.13506875338002</v>
       </c>
       <c r="K179" t="n">
         <v>2</v>
@@ -35050,7 +35050,7 @@
         <v>2</v>
       </c>
       <c r="AA179" t="n">
-        <v>1</v>
+        <v>1.13506875338002</v>
       </c>
       <c r="AB179" t="n">
         <v>2</v>
@@ -35101,7 +35101,7 @@
         <v>2</v>
       </c>
       <c r="AR179" s="20" t="n">
-        <v>1</v>
+        <v>1.13506875338002</v>
       </c>
       <c r="AS179" s="20" t="n">
         <v>2</v>
@@ -38529,7 +38529,7 @@
         <v>0</v>
       </c>
       <c r="R197" t="n">
-        <v>2</v>
+        <v>2.233576642335767</v>
       </c>
       <c r="S197" t="n">
         <v>1</v>
@@ -38580,7 +38580,7 @@
         <v>0</v>
       </c>
       <c r="AI197" t="n">
-        <v>2</v>
+        <v>2.233576642335767</v>
       </c>
       <c r="AJ197" t="n">
         <v>1</v>
@@ -38631,7 +38631,7 @@
         <v>0</v>
       </c>
       <c r="AZ197" s="20" t="n">
-        <v>2</v>
+        <v>2.233576642335767</v>
       </c>
       <c r="BA197" s="20" t="n">
         <v>1</v>
@@ -38928,7 +38928,7 @@
         <v>0</v>
       </c>
       <c r="R199" t="n">
-        <v>2</v>
+        <v>2.277372262773723</v>
       </c>
       <c r="S199" t="n">
         <v>1</v>
@@ -38979,7 +38979,7 @@
         <v>1</v>
       </c>
       <c r="AI199" t="n">
-        <v>2</v>
+        <v>2.277372262773723</v>
       </c>
       <c r="AJ199" t="n">
         <v>1</v>
@@ -39030,7 +39030,7 @@
         <v>1</v>
       </c>
       <c r="AZ199" s="20" t="n">
-        <v>2</v>
+        <v>2.277372262773723</v>
       </c>
       <c r="BA199" s="20" t="n">
         <v>1</v>
